--- a/output/StructureDefinition-ServiceRequestCabaRecupero.xlsx
+++ b/output/StructureDefinition-ServiceRequestCabaRecupero.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T16:20:05-03:00</t>
+    <t>2025-07-12T17:02:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1236,7 +1236,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://recuperocaba.gob.ar/StructureDefinition/PractitionerCabaRecupero)
+    <t xml:space="preserve">Reference(http://recuperocaba.gob.ar/StructureDefinition/PractitionerCabaSolicitanteRecupero)
 </t>
   </si>
   <si>
@@ -1302,6 +1302,10 @@
   </si>
   <si>
     <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://recuperocaba.gob.ar/StructureDefinition/PractitionerCabaFirmanteRecupero)
 </t>
   </si>
   <si>
@@ -1947,7 +1951,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6687,16 +6691,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6761,13 +6765,13 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>410</v>
@@ -6778,10 +6782,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6807,10 +6811,10 @@
         <v>179</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6840,10 +6844,10 @@
         <v>287</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6861,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6882,7 +6886,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>410</v>
@@ -6893,10 +6897,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7008,10 +7012,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7125,10 +7129,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7151,19 +7155,19 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7212,7 +7216,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7230,10 +7234,10 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7244,10 +7248,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7273,16 +7277,16 @@
         <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7331,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7349,10 +7353,10 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7363,10 +7367,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7389,13 +7393,13 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7446,7 +7450,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7467,7 +7471,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>410</v>
@@ -7478,10 +7482,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7507,13 +7511,13 @@
         <v>179</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7542,10 +7546,10 @@
         <v>287</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7563,7 +7567,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7578,16 +7582,16 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7595,10 +7599,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7621,16 +7625,16 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7680,7 +7684,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7695,16 +7699,16 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7712,10 +7716,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7738,13 +7742,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7795,7 +7799,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7810,13 +7814,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7827,14 +7831,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7853,16 +7857,16 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7912,7 +7916,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7927,13 +7931,13 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -7944,10 +7948,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7970,16 +7974,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8029,7 +8033,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8047,10 +8051,10 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8061,14 +8065,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8090,16 +8094,16 @@
         <v>179</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8127,10 +8131,10 @@
         <v>287</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8148,7 +8152,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8166,24 +8170,24 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8206,13 +8210,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8263,7 +8267,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8278,27 +8282,27 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8324,10 +8328,10 @@
         <v>157</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8378,7 +8382,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8399,7 +8403,7 @@
         <v>331</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>20</v>
@@ -8410,10 +8414,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8436,16 +8440,16 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8495,7 +8499,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8510,13 +8514,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>

--- a/output/StructureDefinition-ServiceRequestCabaRecupero.xlsx
+++ b/output/StructureDefinition-ServiceRequestCabaRecupero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T17:02:17-03:00</t>
+    <t>2025-07-14T12:58:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ServiceRequestCabaRecupero.xlsx
+++ b/output/StructureDefinition-ServiceRequestCabaRecupero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T12:58:17-03:00</t>
+    <t>2025-07-14T16:52:57-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
